--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1507001035452331</v>
+        <v>0.1700113000516159</v>
       </c>
       <c r="H2" t="n">
-        <v>59.09913126652322</v>
+        <v>79.48660622907647</v>
       </c>
       <c r="I2" t="n">
-        <v>34.09326050088163</v>
+        <v>-9.606803240865194</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09705243508885857</v>
+        <v>0.09553884385491446</v>
       </c>
       <c r="H3" t="n">
-        <v>46.84021641635716</v>
+        <v>44.55015471770156</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02428298331713703</v>
+        <v>0.01041703237206153</v>
       </c>
       <c r="H4" t="n">
-        <v>159.0110966196714</v>
+        <v>11.11184087113988</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04049029715599536</v>
+        <v>0.03018724122957809</v>
       </c>
       <c r="H5" t="n">
-        <v>-402.3963004351074</v>
+        <v>325.4493226611183</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2392327403737304</v>
+        <v>-0.2073083101560849</v>
       </c>
       <c r="H6" t="n">
-        <v>8.154341763484773</v>
+        <v>6.278322139331491</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2241377193931592</v>
+        <v>-0.1720103004699615</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.300311518453</v>
+        <v>31.1616518203774</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4103403951158638</v>
+        <v>-0.3967428515732616</v>
       </c>
       <c r="H8" t="n">
-        <v>10.82616877708483</v>
+        <v>-7.153696669675853</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3989392913191938</v>
+        <v>-0.3903293101199335</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07649155996545325</v>
+        <v>2.083377697258999</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03467209672272767</v>
+        <v>-0.03938610559419427</v>
       </c>
       <c r="H10" t="n">
-        <v>-313.9607268551956</v>
+        <v>-343.0507692776858</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09669005355928306</v>
+        <v>0.131229521380489</v>
       </c>
       <c r="H11" t="n">
-        <v>-701.8352546619292</v>
+        <v>916.8218913103194</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2434823244932432</v>
+        <v>0.2362752755454559</v>
       </c>
       <c r="H12" t="n">
-        <v>7.171798674788491</v>
+        <v>3.999525695716288</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2753199032316059</v>
+        <v>0.248005697511277</v>
       </c>
       <c r="H13" t="n">
-        <v>4.548982928318057</v>
+        <v>-5.823214628183954</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04963856151477548</v>
+        <v>-0.0384776241020057</v>
       </c>
       <c r="H14" t="n">
-        <v>418.8371302360105</v>
+        <v>-302.1796655296345</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003895771650562771</v>
+        <v>0.02573307032820443</v>
       </c>
       <c r="H15" t="n">
-        <v>-119.2986886470417</v>
+        <v>27.47526208952876</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1617994073148615</v>
+        <v>0.1647343929924573</v>
       </c>
       <c r="H16" t="n">
-        <v>37.11918137946106</v>
+        <v>39.60647623517845</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2063897480315817</v>
+        <v>0.2150641022976667</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.686152822116965</v>
+        <v>-1.722236346511925</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04832982509996714</v>
+        <v>0.05223190306592695</v>
       </c>
       <c r="H18" t="n">
-        <v>-20.07187055520497</v>
+        <v>-13.61859264406413</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07854571335335328</v>
+        <v>0.06848999353972837</v>
       </c>
       <c r="H19" t="n">
-        <v>-12.81349752763911</v>
+        <v>-23.97544390207544</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2001037373536783</v>
+        <v>-0.1788752086667082</v>
       </c>
       <c r="H20" t="n">
-        <v>37.4990701732763</v>
+        <v>-22.91212145254338</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1602163572996657</v>
+        <v>-0.1838935699811558</v>
       </c>
       <c r="H21" t="n">
-        <v>-19.82362885536941</v>
+        <v>7.974944840722522</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04955691611582571</v>
+        <v>0.04237595348718298</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.883034704403435</v>
+        <v>-22.08618723903151</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05361298090094202</v>
+        <v>0.05559011495589583</v>
       </c>
       <c r="H23" t="n">
-        <v>31.27519662097471</v>
+        <v>36.11634996571488</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1154692243797254</v>
+        <v>0.1307625426463148</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.229057951208803</v>
+        <v>12.98510174117692</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1780029377838465</v>
+        <v>0.1622800922161463</v>
       </c>
       <c r="H25" t="n">
-        <v>17.04864958224382</v>
+        <v>6.709843581613406</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01709577193865367</v>
+        <v>0.005713554100652987</v>
       </c>
       <c r="H26" t="n">
-        <v>-67.66866336180911</v>
+        <v>-89.19458906613869</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05550285939577769</v>
+        <v>0.03574884830703168</v>
       </c>
       <c r="H27" t="n">
-        <v>9.978938958929891</v>
+        <v>-29.16364222290547</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.170454880122183</v>
+        <v>0.1446675415400978</v>
       </c>
       <c r="H28" t="n">
-        <v>11.47320948156715</v>
+        <v>-5.391062129033571</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1573080498946807</v>
+        <v>0.1504233297723364</v>
       </c>
       <c r="H29" t="n">
-        <v>-7.846980509833573</v>
+        <v>-11.88013550758164</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03489246331960633</v>
+        <v>0.03686650458446161</v>
       </c>
       <c r="H30" t="n">
-        <v>78.33133186652958</v>
+        <v>88.42042774653645</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02556219459158982</v>
+        <v>0.03731925139650764</v>
       </c>
       <c r="H31" t="n">
-        <v>163.3928080706252</v>
+        <v>284.5375006907184</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009768422826175032</v>
+        <v>-0.02204040112013462</v>
       </c>
       <c r="H32" t="n">
-        <v>-73.80647440080375</v>
+        <v>-159.1002069863162</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01337259829181168</v>
+        <v>0.001302360005632001</v>
       </c>
       <c r="H33" t="n">
-        <v>-48.77113356608083</v>
+        <v>-95.0108105155411</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1303309101017716</v>
+        <v>0.09656640136724229</v>
       </c>
       <c r="H34" t="n">
-        <v>1.846478270661422</v>
+        <v>-24.53863867869114</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1279487694111744</v>
+        <v>0.1697810557233021</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5532569251219465</v>
+        <v>31.96041747957758</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0236796474825606</v>
+        <v>-0.04102729632469536</v>
       </c>
       <c r="H36" t="n">
-        <v>-257.5294356053649</v>
+        <v>-372.9350949672348</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0202850970174027</v>
+        <v>-0.02215038138807492</v>
       </c>
       <c r="H37" t="n">
-        <v>-232.4569027959963</v>
+        <v>-244.6367701321524</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.03222736096870454</v>
+        <v>-0.05827896936535189</v>
       </c>
       <c r="H38" t="n">
-        <v>1477.905726523608</v>
+        <v>-2753.436233478201</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.03441125542364715</v>
+        <v>-0.02541269692003024</v>
       </c>
       <c r="H39" t="n">
-        <v>2.999301552240866</v>
+        <v>23.93506133103244</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1396198565970651</v>
+        <v>0.1364616655626349</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.373900128082928</v>
+        <v>-7.514335647230055</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1510939831484697</v>
+        <v>0.1350205909486641</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.38492791098322</v>
+        <v>-16.3437081227754</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05994046350944271</v>
+        <v>0.07116193170672798</v>
       </c>
       <c r="H42" t="n">
-        <v>-7.162468132705603</v>
+        <v>10.21766792845759</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03908044444707088</v>
+        <v>0.06067289311419088</v>
       </c>
       <c r="H43" t="n">
-        <v>12.42766465221225</v>
+        <v>74.54539673314883</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04766647269244769</v>
+        <v>0.04280101998521783</v>
       </c>
       <c r="H44" t="n">
-        <v>237.7538916978828</v>
+        <v>203.2783894440889</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0201826906054266</v>
+        <v>0.03808508437875471</v>
       </c>
       <c r="H45" t="n">
-        <v>-50.84350994198474</v>
+        <v>-7.240857612930888</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04719945396433953</v>
+        <v>-0.06522490415401151</v>
       </c>
       <c r="H46" t="n">
-        <v>-28.28995520972664</v>
+        <v>0.9039214339372388</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.08610552790038281</v>
+        <v>-0.0939668769660478</v>
       </c>
       <c r="H47" t="n">
-        <v>108.4389914287806</v>
+        <v>-127.4692640543958</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1586204885656599</v>
+        <v>-0.0989509775500266</v>
       </c>
       <c r="H48" t="n">
-        <v>25.91385040330125</v>
+        <v>21.45214847615965</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1188900629536321</v>
+        <v>-0.1107892339138908</v>
       </c>
       <c r="H49" t="n">
-        <v>-39.79683201118681</v>
+        <v>43.89890378583468</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09601594970130509</v>
+        <v>0.04625888833092191</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.80974307051445</v>
+        <v>-57.51140034684327</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1578407735910219</v>
+        <v>0.1201541862885204</v>
       </c>
       <c r="H51" t="n">
-        <v>57.41445065973452</v>
+        <v>19.82965363615456</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04985311437345007</v>
+        <v>0.04571569971152875</v>
       </c>
       <c r="H52" t="n">
-        <v>-16.38056688244115</v>
+        <v>-23.32031925198192</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04451237638426821</v>
+        <v>0.05906170640851614</v>
       </c>
       <c r="H53" t="n">
-        <v>-34.09740908795656</v>
+        <v>-12.55646648909768</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09847841050599218</v>
+        <v>-0.06740290996951226</v>
       </c>
       <c r="H54" t="n">
-        <v>40.84323963196471</v>
+        <v>3.600757242623081</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0566681060067506</v>
+        <v>-0.04325139647440099</v>
       </c>
       <c r="H55" t="n">
-        <v>-26.6301240622671</v>
+        <v>44.00113543441045</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07363016642710804</v>
+        <v>0.06389822096236623</v>
       </c>
       <c r="H56" t="n">
-        <v>60.6730855392322</v>
+        <v>39.43638620802007</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07305721316793833</v>
+        <v>0.09823300568525047</v>
       </c>
       <c r="H57" t="n">
-        <v>1313.022971450471</v>
+        <v>1799.956042243333</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1700113000516159</v>
+        <v>0.1458753443493564</v>
       </c>
       <c r="H2" t="n">
-        <v>79.48660622907647</v>
+        <v>54.00547188224979</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.606803240865194</v>
+        <v>-13.35872088791832</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09553884385491446</v>
+        <v>0.1234700994835908</v>
       </c>
       <c r="H3" t="n">
-        <v>44.55015471770156</v>
+        <v>86.81011056054332</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01041703237206153</v>
+        <v>-0.02037819279444188</v>
       </c>
       <c r="H4" t="n">
-        <v>11.11184087113988</v>
+        <v>-317.3611863864582</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03018724122957809</v>
+        <v>-0.00068131118147376</v>
       </c>
       <c r="H5" t="n">
-        <v>325.4493226611183</v>
+        <v>94.91171971573858</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2073083101560849</v>
+        <v>-0.2346069703862957</v>
       </c>
       <c r="H6" t="n">
-        <v>6.278322139331491</v>
+        <v>-6.063084908930839</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1720103004699615</v>
+        <v>-0.2152809577559405</v>
       </c>
       <c r="H7" t="n">
-        <v>31.1616518203774</v>
+        <v>13.84477856293245</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3967428515732616</v>
+        <v>-0.3839107956671844</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.153696669675853</v>
+        <v>-3.687970139870397</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3903293101199335</v>
+        <v>-0.3408035595991667</v>
       </c>
       <c r="H9" t="n">
-        <v>2.083377697258999</v>
+        <v>14.50723130566895</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03938610559419427</v>
+        <v>-0.03526918340668327</v>
       </c>
       <c r="H10" t="n">
-        <v>-343.0507692776858</v>
+        <v>-317.6453353147398</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.131229521380489</v>
+        <v>0.06993920524861373</v>
       </c>
       <c r="H11" t="n">
-        <v>916.8218913103194</v>
+        <v>535.3279148391908</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2362752755454559</v>
+        <v>0.2071601475528648</v>
       </c>
       <c r="H12" t="n">
-        <v>3.999525695716288</v>
+        <v>-8.815863027497846</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.248005697511277</v>
+        <v>0.2443211867806952</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.823214628183954</v>
+        <v>-7.222357388839186</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0384776241020057</v>
+        <v>-0.04773665934998565</v>
       </c>
       <c r="H14" t="n">
-        <v>-302.1796655296345</v>
+        <v>-398.9578784797829</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02573307032820443</v>
+        <v>-0.02417858951285413</v>
       </c>
       <c r="H15" t="n">
-        <v>27.47526208952876</v>
+        <v>-219.7747488269223</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1647343929924573</v>
+        <v>0.1504293699359908</v>
       </c>
       <c r="H16" t="n">
-        <v>39.60647623517845</v>
+        <v>27.4834834277948</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2150641022976667</v>
+        <v>0.2109588251478912</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.722236346511925</v>
+        <v>-3.598223334332349</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05223190306592695</v>
+        <v>0.03633657518354649</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.61859264406413</v>
+        <v>-39.90637295203029</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06848999353972837</v>
+        <v>0.0932611936553083</v>
       </c>
       <c r="H19" t="n">
-        <v>-23.97544390207544</v>
+        <v>3.520828114762166</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1788752086667082</v>
+        <v>-0.1861103111122736</v>
       </c>
       <c r="H20" t="n">
-        <v>-22.91212145254338</v>
+        <v>-27.88364208494078</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1838935699811558</v>
+        <v>-0.1941817681723289</v>
       </c>
       <c r="H21" t="n">
-        <v>7.974944840722522</v>
+        <v>2.826466804599221</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04237595348718298</v>
+        <v>0.03684709212262297</v>
       </c>
       <c r="H22" t="n">
-        <v>-22.08618723903151</v>
+        <v>-32.25173240534791</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05559011495589583</v>
+        <v>0.05051096004855238</v>
       </c>
       <c r="H23" t="n">
-        <v>36.11634996571488</v>
+        <v>23.67967795223643</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1307625426463148</v>
+        <v>0.1168416187481957</v>
       </c>
       <c r="H24" t="n">
-        <v>12.98510174117692</v>
+        <v>0.9567565352075369</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1622800922161463</v>
+        <v>0.1226324375084204</v>
       </c>
       <c r="H25" t="n">
-        <v>6.709843581613406</v>
+        <v>-19.36109940629242</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005713554100652987</v>
+        <v>-0.001287223466226757</v>
       </c>
       <c r="H26" t="n">
-        <v>-89.19458906613869</v>
+        <v>-102.4343829202037</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03574884830703168</v>
+        <v>0.05428923575006182</v>
       </c>
       <c r="H27" t="n">
-        <v>-29.16364222290547</v>
+        <v>7.574143200579233</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1446675415400978</v>
+        <v>0.1642360865303584</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.391062129033571</v>
+        <v>7.40627469925303</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1504233297723364</v>
+        <v>0.1479946440853243</v>
       </c>
       <c r="H29" t="n">
-        <v>-11.88013550758164</v>
+        <v>-13.30288990318033</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03686650458446161</v>
+        <v>-0.01357566026905447</v>
       </c>
       <c r="H30" t="n">
-        <v>88.42042774653645</v>
+        <v>-169.3836246117841</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03731925139650764</v>
+        <v>0.04509623567294938</v>
       </c>
       <c r="H31" t="n">
-        <v>284.5375006907184</v>
+        <v>364.6715329841363</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.02204040112013462</v>
+        <v>0.009226091716359876</v>
       </c>
       <c r="H32" t="n">
-        <v>-159.1002069863162</v>
+        <v>-75.26070750075917</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001302360005632001</v>
+        <v>0.02827864203931553</v>
       </c>
       <c r="H33" t="n">
-        <v>-95.0108105155411</v>
+        <v>8.332183794959676</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09656640136724229</v>
+        <v>0.09599430385424816</v>
       </c>
       <c r="H34" t="n">
-        <v>-24.53863867869114</v>
+        <v>-24.98570159630874</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1697810557233021</v>
+        <v>0.1504382581715381</v>
       </c>
       <c r="H35" t="n">
-        <v>31.96041747957758</v>
+        <v>16.92644546615344</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04102729632469536</v>
+        <v>-0.03377787299363369</v>
       </c>
       <c r="H36" t="n">
-        <v>-372.9350949672348</v>
+        <v>-324.7081284700537</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02215038138807492</v>
+        <v>0.01018000943508638</v>
       </c>
       <c r="H37" t="n">
-        <v>-244.6367701321524</v>
+        <v>-33.52693758138049</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.05827896936535189</v>
+        <v>-0.0407672325299857</v>
       </c>
       <c r="H38" t="n">
-        <v>-2753.436233478201</v>
+        <v>-1896.032182903549</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.02541269692003024</v>
+        <v>0.01770532028529215</v>
       </c>
       <c r="H39" t="n">
-        <v>23.93506133103244</v>
+        <v>152.9953237884667</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1364616655626349</v>
+        <v>0.1274870066902942</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.514335647230055</v>
+        <v>-13.59682983873568</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1350205909486641</v>
+        <v>0.1364195183795629</v>
       </c>
       <c r="H41" t="n">
-        <v>-16.3437081227754</v>
+        <v>-15.47695823927932</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07116193170672798</v>
+        <v>0.06980794863670302</v>
       </c>
       <c r="H42" t="n">
-        <v>10.21766792845759</v>
+        <v>8.120579600279795</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06067289311419088</v>
+        <v>0.0273683053257041</v>
       </c>
       <c r="H43" t="n">
-        <v>74.54539673314883</v>
+        <v>-21.26612947237768</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04280101998521783</v>
+        <v>0.01697176416668398</v>
       </c>
       <c r="H44" t="n">
-        <v>203.2783894440889</v>
+        <v>20.25809908909864</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03808508437875471</v>
+        <v>0.03291857291657075</v>
       </c>
       <c r="H45" t="n">
-        <v>-7.240857612930888</v>
+        <v>-19.82429231400997</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.06522490415401151</v>
+        <v>-0.0812083982638054</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9039214339372388</v>
+        <v>-23.3797721737125</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0939668769660478</v>
+        <v>-0.03608251533009033</v>
       </c>
       <c r="H47" t="n">
-        <v>-127.4692640543958</v>
+        <v>12.65365549679063</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0989509775500266</v>
+        <v>-0.1367943811133881</v>
       </c>
       <c r="H48" t="n">
-        <v>21.45214847615965</v>
+        <v>-8.588161562706555</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1107892339138908</v>
+        <v>-0.1278903752515947</v>
       </c>
       <c r="H49" t="n">
-        <v>43.89890378583468</v>
+        <v>35.23928279500591</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04625888833092191</v>
+        <v>0.07875579745486189</v>
       </c>
       <c r="H50" t="n">
-        <v>-57.51140034684327</v>
+        <v>-27.6631222850219</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1201541862885204</v>
+        <v>0.1253540839503374</v>
       </c>
       <c r="H51" t="n">
-        <v>19.82965363615456</v>
+        <v>25.01550653904682</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04571569971152875</v>
+        <v>0.05870797280982552</v>
       </c>
       <c r="H52" t="n">
-        <v>-23.32031925198192</v>
+        <v>-1.528169954150575</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05906170640851614</v>
+        <v>0.04377433202443114</v>
       </c>
       <c r="H53" t="n">
-        <v>-12.55646648909768</v>
+        <v>-35.19011721707081</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06740290996951226</v>
+        <v>-0.1174739124882164</v>
       </c>
       <c r="H54" t="n">
-        <v>3.600757242623081</v>
+        <v>-68.0104940978466</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04325139647440099</v>
+        <v>-0.05661924419879241</v>
       </c>
       <c r="H55" t="n">
-        <v>44.00113543441045</v>
+        <v>26.69338689281871</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06389822096236623</v>
+        <v>0.04920039590137342</v>
       </c>
       <c r="H56" t="n">
-        <v>39.43638620802007</v>
+        <v>7.363324067064066</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09823300568525047</v>
+        <v>0.1074112573784207</v>
       </c>
       <c r="H57" t="n">
-        <v>1799.956042243333</v>
+        <v>1977.475549460113</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>